--- a/테이블/테이블 원본/StoyDialouge 사용법.xlsx
+++ b/테이블/테이블 원본/StoyDialouge 사용법.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwang\OneDrive\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Last-Night\테이블\테이블 원본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A82807-4506-48A0-A605-6773D504171F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F75DF-3B0C-4A37-A8EC-C1F0C6B56596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C3DC1C49-96D0-4DB7-B7CB-6A55F2781C7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>FadeEffect</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -274,8 +274,14 @@
     <t>1. LeftEvent, MiddleEvent, RightEvent가 원하는 이벤트를 불러오는 데이터다.
 2. Move에는 움직일 거리를 넣어주면 된다.
 3. Time에는 몇 초만에 움직일 껀지 넣어주면 된다.
-4. Fade에 true를 넣어주면 캐릭터가 이벤트를 하면서 FadeOut된다.\
+4. Fade에 true를 넣어주면 캐릭터가 이벤트를 하면서 FadeOut된다.
 5. 캐릭터 하이라이트는 별도로 설정 안해도 사용된다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move 입력법
+왼쪽으로 100만큼 가고 싶을 때 : -100 입력
+오른쪽으로 100만큼 가고 싶을 때 : 100 입력</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,37 +429,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,16 +790,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -959,16 +962,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1135,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB57D81-3418-47AE-BB69-FCE9445FA121}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A1:B7"/>
@@ -1150,21 +1153,21 @@
     <col min="12" max="12" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1204,46 +1207,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="J16" s="2" t="s">
@@ -1252,11 +1252,8 @@
       <c r="K16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="J17" s="1" t="s">
@@ -1265,11 +1262,8 @@
       <c r="K17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="J18" s="1" t="s">
@@ -1278,11 +1272,8 @@
       <c r="K18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="J19" s="1" t="s">
@@ -1291,11 +1282,8 @@
       <c r="K19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="J20" s="1" t="s">
@@ -1304,54 +1292,54 @@
       <c r="K20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J22" s="9" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J23" s="9" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J24" s="12" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="10"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1370,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA79A7-0163-4B0F-BF95-A6D91A01AEF4}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,27 +1371,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1412,13 +1400,13 @@
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1427,13 +1415,13 @@
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1442,69 +1430,63 @@
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:K6"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E8:K10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블/테이블 원본/StoyDialouge 사용법.xlsx
+++ b/테이블/테이블 원본/StoyDialouge 사용법.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Last-Night\테이블\테이블 원본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F75DF-3B0C-4A37-A8EC-C1F0C6B56596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC64CF0E-2358-4FC4-92CC-D1B8A22794CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C3DC1C49-96D0-4DB7-B7CB-6A55F2781C7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C3DC1C49-96D0-4DB7-B7CB-6A55F2781C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="FadeEffect" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4766E3F8-49BC-41AB-95EF-6D82657973E9}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:B21"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1360,7 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA79A7-0163-4B0F-BF95-A6D91A01AEF4}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
